--- a/Rubrica Trabajo en grupo.xlsx
+++ b/Rubrica Trabajo en grupo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Carrera\ABD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344B3B87-DFCB-4AF6-AA4C-52E106FB1E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1730CBA-ABCD-4572-8B6C-7D94C4984C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
   <si>
     <t>Miscelanea</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Nota:</t>
   </si>
   <si>
-    <t>Comprobar los tablespaces creados y los de las tablas e índices</t>
-  </si>
-  <si>
     <t>¿Se ha cifrado alguna columna como se indicaba en la práctica de seguridad?</t>
   </si>
   <si>
@@ -249,6 +246,78 @@
   </si>
   <si>
     <t>Se ha configurado AUDIT para modificación de citas o sesiones de entrenamiento o se ha creado un Trigger</t>
+  </si>
+  <si>
+    <t>Si hemos cifrado, las columnas telefono, direccion y correoe de la tabla usuario. Al principio del fichero hacemos la configuracion del wallet</t>
+  </si>
+  <si>
+    <t>CREATE TABLESPACE TS_LIFEFIT DATAFILE 'C:\APP\ALUMNOS\ORADATA\ORCL\LIFEFIT.DBF' SIZE 10M AUTOEXTEND ON; CREATE TABLESPACE TS_INDICES DATAFILE 'C:\APP\ALUMNOS\ORADATA\ORCL\INDICES.DBF' SIZE 50M AUTOEXTEND ON;</t>
+  </si>
+  <si>
+    <t>NOMBRE_IDX Y UPPERAPELLIDOS_IDX SON DE TIPO ARBOL-B, Y CENTRO_ID_BTMP QUE ES DE TIPO BITMAP.   Estos índices los hemos usado para mejorar el rendimiento de las consultas al proporcionar un acceso mas rapido a los datos en las tablas.</t>
+  </si>
+  <si>
+    <t>Si. Linea 291 del script.</t>
+  </si>
+  <si>
+    <t>Si hemos creado la funcion vpd_function, la cual sirve para restringir el acceso y que un usuario solo pueda consultar su informacion personal. Linea 500.</t>
+  </si>
+  <si>
+    <t>Si es una vista que muestro los ejercicios que son publicos. CREATE VIEW VEJERCICIO AS SELECT * FROM EJERCICIO WHERE PUBLICO='S';</t>
+  </si>
+  <si>
+    <t>Es una vista que se refresca diariamento con los datos de la tabla ejercicios_ext; CREATE MATERIALIZED VIEW VM_EJERCICIOS
+REFRESH FORCE START WITH SYSDATE NEXT SYSDATE + 1
+AS SELECT * FROM ejercicios_ext;</t>
+  </si>
+  <si>
+    <t>Hacemos CRUD de ejercicios al rol Entrenador_dyf</t>
+  </si>
+  <si>
+    <t>Hacemos CRUD de rutina al rol Entrenador_dyf</t>
+  </si>
+  <si>
+    <t>Hacemos CRUD de entrena al rol Gerente</t>
+  </si>
+  <si>
+    <t>Hacemos CRUD PLAN, SESION, CONFORMAN al rol Entrenador_dyf</t>
+  </si>
+  <si>
+    <t>Hemos creado el  package base y el package body base</t>
+  </si>
+  <si>
+    <t>Sirve para asignarle ids a los ejericicios. create or replace trigger tr_EJERCICIOS
+before insert on EJERCICIO for each row
+begin
+if :new.ID is null then
+ :new.ID := SEQ_EJERCICIOS.NEXTVAL;
+end if;
+END tr_EJERCICIOS;
+/</t>
+  </si>
+  <si>
+    <t>Añadimos el usuario a la tabla usuario y además añadimos al cliente en la tabla cliente y le damos el rol cliente</t>
+  </si>
+  <si>
+    <t>Añadimos el usuario a la tabla usuario y además añadimos al entrenador en la tabla entrenador y le damos el rol entrenador_dyf y entrenador_n</t>
+  </si>
+  <si>
+    <t>Añadimos el usuario a la tabla usuario y además añadimos al gerente en la tabla gerente y le damos el rol gerente</t>
+  </si>
+  <si>
+    <t>Mantiene la informacion del usuario, pero pone a null la columna usuariooracle y además elimina su infraestructura.</t>
+  </si>
+  <si>
+    <t>Se eliminan los datos asociados a las respectivas ids</t>
+  </si>
+  <si>
+    <t>Se elimina el centro y todo lo relacionado a el</t>
+  </si>
+  <si>
+    <t>Si lo controlamos con savepoint y rollbacks, en los procedimiento autoconfirmados hacemos commit. PREGUNTAR PRAGMA AUTONOMOUS_TRANSACTION</t>
+  </si>
+  <si>
+    <t>Hemos creado un trigger, para que al crear un usuario, el campo del usuariooracle se cree automaticamente junto con su id</t>
   </si>
 </sst>
 </file>
@@ -829,20 +898,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334588-D4EB-43EC-8424-5ED08F8B2503}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -852,7 +921,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
@@ -862,7 +931,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -872,7 +941,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -903,14 +972,14 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>1</v>
       </c>
@@ -918,20 +987,20 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F31" si="0">IF(D6="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>13</v>
@@ -939,27 +1008,31 @@
       <c r="D7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="27" t="s">
+        <v>72</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <f>A6+1</f>
         <v>2</v>
@@ -968,32 +1041,36 @@
         <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>69</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>73</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <f>A9+1</f>
         <v>3</v>
@@ -1002,96 +1079,108 @@
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>74</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>75</v>
+      </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>4</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>7</v>
@@ -1102,10 +1191,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>7</v>
@@ -1116,10 +1205,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>7</v>
@@ -1130,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>5</v>
       </c>
@@ -1138,108 +1227,122 @@
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="27" t="s">
+        <v>80</v>
+      </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <f>A20+1</f>
         <v>6</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>82</v>
+      </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>84</v>
+      </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>87</v>
+      </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <f>A21+1</f>
         <v>7</v>
@@ -1248,18 +1351,20 @@
         <v>29</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <f>A27+1</f>
         <v>8</v>
@@ -1271,26 +1376,28 @@
         <v>32</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>88</v>
+      </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" s="6"/>
       <c r="D29" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <f>A28+1</f>
         <v>9</v>
@@ -1302,15 +1409,15 @@
         <v>31</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <f>A30+1</f>
         <v>10</v>
@@ -1320,32 +1427,32 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="20"/>
       <c r="F33" s="26">
         <f>SUM(F6:F31)/26*2</f>
-        <v>0.84615384615384615</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+        <v>1.7692307692307692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1474,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B35" s="11" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1482,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="20"/>
     </row>
-    <row r="36" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B36" s="11" t="s">
         <v>11</v>
       </c>
@@ -1383,28 +1490,28 @@
       <c r="D36" s="6"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>1</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D39" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39">
@@ -1412,26 +1519,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>2</v>
       </c>
       <c r="B40" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D40" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40">
         <f>IF(D39="SI",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>3</v>
       </c>
@@ -1450,21 +1557,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>4</v>
       </c>
@@ -1475,53 +1582,53 @@
         <v>20</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43">
         <f t="shared" ref="F43:F49" si="2">IF(D43="SI",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="27"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
         <v>23</v>
@@ -1535,21 +1642,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <f>A43+1</f>
         <v>5</v>
@@ -1558,7 +1665,7 @@
         <v>26</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>7</v>
@@ -1569,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <f>A49+1</f>
         <v>6</v>
@@ -1581,48 +1688,50 @@
         <v>1</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50">
         <f t="shared" ref="F50:F52" si="3">IF(D50="SI",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="27"/>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>89</v>
+      </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="30" t="s">
         <v>36</v>
@@ -1630,10 +1739,10 @@
       <c r="C54" s="6"/>
       <c r="F54" s="21">
         <f>SUM(F39:F52)/14*2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="30" t="s">
         <v>37</v>
@@ -1641,7 +1750,7 @@
       <c r="C55" s="6"/>
       <c r="F55" s="21">
         <f>F54+F33</f>
-        <v>0.84615384615384615</v>
+        <v>3.0549450549450547</v>
       </c>
       <c r="G55" s="21">
         <f t="shared" ref="G55:U55" si="4">SUM(G40:G53)/14*2</f>
@@ -1704,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1799,22 +1908,22 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>

--- a/Rubrica Trabajo en grupo.xlsx
+++ b/Rubrica Trabajo en grupo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Carrera\ABD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1730CBA-ABCD-4572-8B6C-7D94C4984C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7632538C-584A-47E4-B935-FD3C11A0FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334588-D4EB-43EC-8424-5ED08F8B2503}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Rubrica Trabajo en grupo.xlsx
+++ b/Rubrica Trabajo en grupo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Carrera\ABD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7632538C-584A-47E4-B935-FD3C11A0FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97BEE23-41CF-4B01-818A-E8CA2384533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
   <si>
     <t>Miscelanea</t>
   </si>
@@ -266,11 +266,6 @@
     <t>Si es una vista que muestro los ejercicios que son publicos. CREATE VIEW VEJERCICIO AS SELECT * FROM EJERCICIO WHERE PUBLICO='S';</t>
   </si>
   <si>
-    <t>Es una vista que se refresca diariamento con los datos de la tabla ejercicios_ext; CREATE MATERIALIZED VIEW VM_EJERCICIOS
-REFRESH FORCE START WITH SYSDATE NEXT SYSDATE + 1
-AS SELECT * FROM ejercicios_ext;</t>
-  </si>
-  <si>
     <t>Hacemos CRUD de ejercicios al rol Entrenador_dyf</t>
   </si>
   <si>
@@ -278,9 +273,6 @@
   </si>
   <si>
     <t>Hacemos CRUD de entrena al rol Gerente</t>
-  </si>
-  <si>
-    <t>Hacemos CRUD PLAN, SESION, CONFORMAN al rol Entrenador_dyf</t>
   </si>
   <si>
     <t>Hemos creado el  package base y el package body base</t>
@@ -318,6 +310,41 @@
   </si>
   <si>
     <t>Hemos creado un trigger, para que al crear un usuario, el campo del usuariooracle se cree automaticamente junto con su id</t>
+  </si>
+  <si>
+    <t>Creamos la columna estado en sesion y la vista CONTROL_SESIONES_CLIENTE y le damos permiso al cliente y la vista PERFIL y grant a cliente</t>
+  </si>
+  <si>
+    <t>Creamos las vistas VIDEOS y ESTADO para el entrenador_dyf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacemos CRUD PLAN, SESION, CONFORMAN al rol Entrenador_dyf. </t>
+  </si>
+  <si>
+    <t>Es una vista que se refresca diariamento con los datos de la tabla ejercicios_ext; CREATE MATERIALIZED VIEW VM_EJERCICIOS
+REFRESH FORCE START WITH SYSDATE NEXT SYSDATE + 1
+AS SELECT * FROM ejercicios_ext; CREATE SYNONYM S_EJERCICIOS FOR VM_EJERCICIOS;</t>
+  </si>
+  <si>
+    <t>Creamos el paquete ICALC y el package body ICALC.</t>
+  </si>
+  <si>
+    <t>Creamos el procedimiento crea_elementos() y su correspondiente job</t>
+  </si>
+  <si>
+    <t>Hemos creados los roles gerente, entrenador_dyf, entrenaodor_n, cliente, administrador</t>
+  </si>
+  <si>
+    <t>En las funciones de crear se hacen los correspondientes grant</t>
+  </si>
+  <si>
+    <t>Hacemos grant de permisos y vistas concretas</t>
+  </si>
+  <si>
+    <t>PREGUNTAR AL PROFESOR</t>
+  </si>
+  <si>
+    <t>Hemos rellenado las tablas</t>
   </si>
 </sst>
 </file>
@@ -898,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334588-D4EB-43EC-8424-5ED08F8B2503}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>44</v>
@@ -1101,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -1117,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1138,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1154,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -1170,39 +1197,43 @@
         <v>6</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>88</v>
+      </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>89</v>
+      </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1233,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -1255,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -1271,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -1287,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -1303,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -1319,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -1335,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -1357,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -1379,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -1449,7 +1480,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="26">
         <f>SUM(F6:F31)/26*2</f>
-        <v>1.7692307692307692</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
@@ -1513,13 +1544,15 @@
       <c r="D39" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="27"/>
+      <c r="E39" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="F39">
         <f>IF(D38="SI",2,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>2</v>
       </c>
@@ -1532,7 +1565,9 @@
       <c r="D40" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="27"/>
+      <c r="E40" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="F40">
         <f>IF(D39="SI",1,0)</f>
         <v>1</v>
@@ -1571,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>4</v>
       </c>
@@ -1584,13 +1619,15 @@
       <c r="D43" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="27"/>
+      <c r="E43" s="27" t="s">
+        <v>94</v>
+      </c>
       <c r="F43">
         <f t="shared" ref="F43:F49" si="2">IF(D43="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
         <v>21</v>
@@ -1598,7 +1635,9 @@
       <c r="D44" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="27"/>
+      <c r="E44" s="27" t="s">
+        <v>95</v>
+      </c>
       <c r="F44">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1612,7 +1651,9 @@
       <c r="D45" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="27"/>
+      <c r="E45" s="27" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
@@ -1636,7 +1677,9 @@
       <c r="D47" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="27"/>
+      <c r="E47" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="F47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1670,7 +1713,9 @@
       <c r="D49" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="27"/>
+      <c r="E49" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="F49">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1690,7 +1735,9 @@
       <c r="D50" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="27"/>
+      <c r="E50" s="27" t="s">
+        <v>98</v>
+      </c>
       <c r="F50">
         <f t="shared" ref="F50:F52" si="3">IF(D50="SI",1,0)</f>
         <v>1</v>
@@ -1719,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
@@ -1750,7 +1797,7 @@
       <c r="C55" s="6"/>
       <c r="F55" s="21">
         <f>F54+F33</f>
-        <v>3.0549450549450547</v>
+        <v>3.2087912087912089</v>
       </c>
       <c r="G55" s="21">
         <f t="shared" ref="G55:U55" si="4">SUM(G40:G53)/14*2</f>

--- a/Rubrica Trabajo en grupo.xlsx
+++ b/Rubrica Trabajo en grupo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Carrera\ABD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97BEE23-41CF-4B01-818A-E8CA2384533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2DB426-4349-48D2-8064-7D4B0CA4BD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
   <si>
     <t>Miscelanea</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>Hemos rellenado las tablas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si. En sesion y plan se comprueba que la fecha de inicio sea anterior a la de fin. </t>
+  </si>
+  <si>
+    <t>Hemos creado un perfil, que le hemos asignados las politicas de que la cuenta se bloquee a los 5 intentos, la password caduque a los 90 dias y que tiene un periodod de gracia de 3 dias</t>
+  </si>
+  <si>
+    <t>Creamos tabla GESTION_CITA, y damos los permisos necesarios a los roles para modificarla.</t>
   </si>
 </sst>
 </file>
@@ -925,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334588-D4EB-43EC-8424-5ED08F8B2503}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,18 +1245,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1480,7 +1491,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="26">
         <f>SUM(F6:F31)/26*2</f>
-        <v>1.9230769230769231</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
@@ -1584,12 +1595,14 @@
         <v>17</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>99</v>
+      </c>
       <c r="F41">
         <f t="shared" ref="F41:F42" si="1">IF(D41="SI",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -1669,20 +1682,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -1786,7 +1799,7 @@
       <c r="C54" s="6"/>
       <c r="F54" s="21">
         <f>SUM(F39:F52)/14*2</f>
-        <v>1.2857142857142858</v>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1797,7 +1810,7 @@
       <c r="C55" s="6"/>
       <c r="F55" s="21">
         <f>F54+F33</f>
-        <v>3.2087912087912089</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="G55" s="21">
         <f t="shared" ref="G55:U55" si="4">SUM(G40:G53)/14*2</f>
